--- a/課題使用ファイル/課題1使用ファイル/課題1簡易設計書.xlsx
+++ b/課題使用ファイル/課題1使用ファイル/課題1簡易設計書.xlsx
@@ -1417,14 +1417,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3409950</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1433,7 +1433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3295650" y="14077950"/>
+          <a:off x="3295650" y="15462250"/>
           <a:ext cx="2476500" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
@@ -1490,21 +1490,21 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2171700</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="77" idx="2"/>
-          <a:endCxn id="92" idx="1"/>
+          <a:endCxn id="62" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4533900" y="13373100"/>
-          <a:ext cx="0" cy="704850"/>
+          <a:ext cx="0" cy="889000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1539,26 +1539,26 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1663700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="114" name="図形 113"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="62" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
           <a:off x="3352800" y="7115174"/>
-          <a:ext cx="673100" cy="6943725"/>
+          <a:ext cx="444500" cy="7381875"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -100000"/>
-            <a:gd name="adj2" fmla="val 95244"/>
+            <a:gd name="adj1" fmla="val -51429"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2126,27 +2126,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:colOff>2908300</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9617075</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="137" name="図形 136"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="133" idx="2"/>
+          <a:endCxn id="62" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6751638" y="8564563"/>
-          <a:ext cx="3048000" cy="7407275"/>
+          <a:off x="6748463" y="9266238"/>
+          <a:ext cx="3752850" cy="6708775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2175,15 +2176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6896100</xdr:colOff>
+      <xdr:colOff>6870700</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6899275</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2194,8 +2195,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9258300" y="12192000"/>
-          <a:ext cx="3175" cy="1587500"/>
+          <a:off x="9232900" y="12192000"/>
+          <a:ext cx="28575" cy="2311400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2577,14 +2578,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>993775</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2171700</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2596,12 +2597,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1735138" y="14066838"/>
-          <a:ext cx="2273300" cy="3324225"/>
+          <a:off x="1404938" y="15781338"/>
+          <a:ext cx="2933700" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 37446"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2629,14 +2630,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1727200</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2645,7 +2646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="16865600"/>
+          <a:off x="476250" y="18910300"/>
           <a:ext cx="1466850" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3333,88 +3334,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="四角形吹き出し 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="482600" y="9486900"/>
-          <a:ext cx="2578100" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 66741"/>
-            <a:gd name="adj2" fmla="val 1782"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ポイント⑦</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>WEB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページで画面遷移が発生する場合、読込時間が不安定であるほどエラーが発生しやすくなる。処理成功率を上げるための対策を入れること。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11049000</xdr:colOff>
       <xdr:row>48</xdr:row>
@@ -3493,16 +3412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3511,7 +3430,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2527300" y="15671800"/>
+          <a:off x="2298700" y="17614900"/>
           <a:ext cx="2578100" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3551,7 +3470,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ポイント⑧</a:t>
+            <a:t>ポイント⑨</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3666,6 +3585,305 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形吹き出し 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="9639300"/>
+          <a:ext cx="2578100" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 66741"/>
+            <a:gd name="adj2" fmla="val 1782"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポイント⑦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページで画面遷移が発生する場合、読込時間が不安定であるほどエラーが発生しやすくなる。処理成功率を上げるための対策を入れること。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2908300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3797300" y="14262100"/>
+          <a:ext cx="1473200" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ブラウザを閉じる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="14732000"/>
+          <a:ext cx="0" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4597400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7810500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="四角形吹き出し 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6959600" y="14757400"/>
+          <a:ext cx="3213100" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -102151"/>
+            <a:gd name="adj2" fmla="val -55126"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポイント⑧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラーからの復帰をしやすくるため、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件の処理が終わったら毎回ブラウザを立ち上げ直している。ブラウザを閉じず、そのまま再度受注登録画面へ遷移する方法もあるが、ロボが複雑になるため採用しなかった。ログインから受注登録までの遷移に時間がかかる場合は、ブラウザを閉じないない実装方法も検討することになる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>

--- a/課題使用ファイル/課題1使用ファイル/課題1簡易設計書.xlsx
+++ b/課題使用ファイル/課題1使用ファイル/課題1簡易設計書.xlsx
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="38" name="フローチャート: 判断 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF5027F5-B778-4367-84BE-AA43C886889F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5027F5-B778-4367-84BE-AA43C886889F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="125" name="フローチャート: 判断 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF5027F5-B778-4367-84BE-AA43C886889F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5027F5-B778-4367-84BE-AA43C886889F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,6 +3202,7 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>エラーメッセージが表示されているかを確認することで、データ不備によるエラーなのか、その他の原因によるエラーなのかを判定する。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3264,8 +3265,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3275,12 +3276,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12014200" y="6946900"/>
-          <a:ext cx="2578100" cy="1562100"/>
+          <a:ext cx="2578100" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -134245"/>
-            <a:gd name="adj2" fmla="val 145143"/>
+            <a:gd name="adj1" fmla="val -133260"/>
+            <a:gd name="adj2" fmla="val 97973"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3327,6 +3328,39 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ロボ側にデータチェックのロジックを入れるより、システム上のエラーを取得した方が確実。開発工数削減にもなる。またエラーメッセージを取得しておくことで、ユーザーの利便性が増す。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>この処理は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Catch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>内ではなく、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Try</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>内に入れるのでも</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4228,7 +4262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
